--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.910463666666666</v>
+        <v>3.352819</v>
       </c>
       <c r="H2">
-        <v>11.731391</v>
+        <v>10.058457</v>
       </c>
       <c r="I2">
-        <v>0.02584512419166263</v>
+        <v>0.02224149976981271</v>
       </c>
       <c r="J2">
-        <v>0.02584512419166263</v>
+        <v>0.02224149976981271</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.210619666666666</v>
+        <v>12.40685866666667</v>
       </c>
       <c r="N2">
-        <v>27.631859</v>
+        <v>37.220576</v>
       </c>
       <c r="O2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="P2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="Q2">
-        <v>36.01779355398544</v>
+        <v>41.59795146791467</v>
       </c>
       <c r="R2">
-        <v>324.160141985869</v>
+        <v>374.381563211232</v>
       </c>
       <c r="S2">
-        <v>0.00345384878093984</v>
+        <v>0.003826262721068835</v>
       </c>
       <c r="T2">
-        <v>0.00345384878093984</v>
+        <v>0.003826262721068835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.910463666666666</v>
+        <v>3.352819</v>
       </c>
       <c r="H3">
-        <v>11.731391</v>
+        <v>10.058457</v>
       </c>
       <c r="I3">
-        <v>0.02584512419166263</v>
+        <v>0.02224149976981271</v>
       </c>
       <c r="J3">
-        <v>0.02584512419166263</v>
+        <v>0.02224149976981271</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>131.916367</v>
       </c>
       <c r="O3">
-        <v>0.6379891218794987</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="P3">
-        <v>0.6379891218794989</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="Q3">
-        <v>171.9513867307219</v>
+        <v>147.4305672295243</v>
       </c>
       <c r="R3">
-        <v>1547.562480576497</v>
+        <v>1326.875105065719</v>
       </c>
       <c r="S3">
-        <v>0.01648890808790543</v>
+        <v>0.01356095825467438</v>
       </c>
       <c r="T3">
-        <v>0.01648890808790543</v>
+        <v>0.01356095825467438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.910463666666666</v>
+        <v>3.352819</v>
       </c>
       <c r="H4">
-        <v>11.731391</v>
+        <v>10.058457</v>
       </c>
       <c r="I4">
-        <v>0.02584512419166263</v>
+        <v>0.02224149976981271</v>
       </c>
       <c r="J4">
-        <v>0.02584512419166263</v>
+        <v>0.02224149976981271</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>15.740255</v>
       </c>
       <c r="N4">
-        <v>47.22076500000001</v>
+        <v>47.220765</v>
       </c>
       <c r="O4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="P4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="Q4">
-        <v>61.55169528156834</v>
+        <v>52.774226028845</v>
       </c>
       <c r="R4">
-        <v>553.965257534115</v>
+        <v>474.968034259605</v>
       </c>
       <c r="S4">
-        <v>0.005902367322817358</v>
+        <v>0.004854278794069496</v>
       </c>
       <c r="T4">
-        <v>0.005902367322817358</v>
+        <v>0.004854278794069496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>375.035965</v>
       </c>
       <c r="I5">
-        <v>0.8262320377664542</v>
+        <v>0.8292884613633072</v>
       </c>
       <c r="J5">
-        <v>0.8262320377664542</v>
+        <v>0.8292884613633072</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.210619666666666</v>
+        <v>12.40685866666667</v>
       </c>
       <c r="N5">
-        <v>27.631859</v>
+        <v>37.220576</v>
       </c>
       <c r="O5">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="P5">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="Q5">
-        <v>1151.437878312104</v>
+        <v>1551.006070890649</v>
       </c>
       <c r="R5">
-        <v>10362.94090480893</v>
+        <v>13959.05463801584</v>
       </c>
       <c r="S5">
-        <v>0.1104146567550128</v>
+        <v>0.1426646385165813</v>
       </c>
       <c r="T5">
-        <v>0.1104146567550128</v>
+        <v>0.1426646385165813</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>375.035965</v>
       </c>
       <c r="I6">
-        <v>0.8262320377664542</v>
+        <v>0.8292884613633072</v>
       </c>
       <c r="J6">
-        <v>0.8262320377664542</v>
+        <v>0.8292884613633072</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>131.916367</v>
       </c>
       <c r="O6">
-        <v>0.6379891218794987</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="P6">
-        <v>0.6379891218794989</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="Q6">
-        <v>5497.042444126571</v>
+        <v>5497.042444126572</v>
       </c>
       <c r="R6">
-        <v>49473.38199713914</v>
+        <v>49473.38199713915</v>
       </c>
       <c r="S6">
-        <v>0.5271270522433289</v>
+        <v>0.5056289513755958</v>
       </c>
       <c r="T6">
-        <v>0.527127052243329</v>
+        <v>0.5056289513755958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>375.035965</v>
       </c>
       <c r="I7">
-        <v>0.8262320377664542</v>
+        <v>0.8292884613633072</v>
       </c>
       <c r="J7">
-        <v>0.8262320377664542</v>
+        <v>0.8292884613633072</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,13 +865,13 @@
         <v>15.740255</v>
       </c>
       <c r="N7">
-        <v>47.22076500000001</v>
+        <v>47.220765</v>
       </c>
       <c r="O7">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="P7">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="Q7">
         <v>1967.720574423692</v>
@@ -880,10 +880,10 @@
         <v>17709.48516981323</v>
       </c>
       <c r="S7">
-        <v>0.1886903287681124</v>
+        <v>0.1809948714711302</v>
       </c>
       <c r="T7">
-        <v>0.1886903287681124</v>
+        <v>0.1809948714711302</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>67.14383099999999</v>
       </c>
       <c r="I8">
-        <v>0.1479228380418833</v>
+        <v>0.1484700388668802</v>
       </c>
       <c r="J8">
-        <v>0.1479228380418833</v>
+        <v>0.1484700388668802</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.210619666666666</v>
+        <v>12.40685866666667</v>
       </c>
       <c r="N8">
-        <v>27.631859</v>
+        <v>37.220576</v>
       </c>
       <c r="O8">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="P8">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="Q8">
-        <v>206.1454301013143</v>
+        <v>277.6813405185173</v>
       </c>
       <c r="R8">
-        <v>1855.308870911829</v>
+        <v>2499.132064666656</v>
       </c>
       <c r="S8">
-        <v>0.01976787227081432</v>
+        <v>0.02554168472411285</v>
       </c>
       <c r="T8">
-        <v>0.01976787227081432</v>
+        <v>0.02554168472411285</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>67.14383099999999</v>
       </c>
       <c r="I9">
-        <v>0.1479228380418833</v>
+        <v>0.1484700388668802</v>
       </c>
       <c r="J9">
-        <v>0.1479228380418833</v>
+        <v>0.1484700388668802</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>131.916367</v>
       </c>
       <c r="O9">
-        <v>0.6379891218794987</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="P9">
-        <v>0.6379891218794989</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="Q9">
         <v>984.1522502202193</v>
@@ -1004,10 +1004,10 @@
         <v>8857.370251981974</v>
       </c>
       <c r="S9">
-        <v>0.09437316154826444</v>
+        <v>0.09052429107664438</v>
       </c>
       <c r="T9">
-        <v>0.09437316154826446</v>
+        <v>0.09052429107664438</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>67.14383099999999</v>
       </c>
       <c r="I10">
-        <v>0.1479228380418833</v>
+        <v>0.1484700388668802</v>
       </c>
       <c r="J10">
-        <v>0.1479228380418833</v>
+        <v>0.1484700388668802</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>15.740255</v>
       </c>
       <c r="N10">
-        <v>47.22076500000001</v>
+        <v>47.220765</v>
       </c>
       <c r="O10">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="P10">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="Q10">
-        <v>352.287007205635</v>
+        <v>352.2870072056349</v>
       </c>
       <c r="R10">
-        <v>3170.583064850715</v>
+        <v>3170.583064850714</v>
       </c>
       <c r="S10">
-        <v>0.03378180422280454</v>
+        <v>0.03240406306612296</v>
       </c>
       <c r="T10">
-        <v>0.03378180422280454</v>
+        <v>0.03240406306612296</v>
       </c>
     </row>
   </sheetData>
